--- a/Feature/Feature Pool.xlsx
+++ b/Feature/Feature Pool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wenjuan Xu\OneDrive\桌面\Graduate Study\Graduate Study\Research\Crypto_Trading\Code\Feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471CF20F-5929-4BEB-951F-11C9CC562337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B061313-E99D-41A2-AC15-4677D640B1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Data_Type</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Function_Name</t>
+  </si>
+  <si>
+    <t>best ask price difference return</t>
+  </si>
+  <si>
+    <t>best_ask_diff</t>
   </si>
 </sst>
 </file>
@@ -185,6 +191,50 @@
         <a:xfrm>
           <a:off x="5918200" y="215900"/>
           <a:ext cx="1917700" cy="213078"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22458</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2535200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598A6A0E-FB52-ED1A-B454-493F4794FB9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6874108" y="533400"/>
+          <a:ext cx="2512742" cy="165100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -462,7 +512,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,8 +577,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H3" s="3"/>
+    <row r="3" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H4" s="3"/>

--- a/Feature/Feature Pool.xlsx
+++ b/Feature/Feature Pool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wenjuan Xu\OneDrive\桌面\Graduate Study\Graduate Study\Research\Crypto_Trading\Code\Feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B061313-E99D-41A2-AC15-4677D640B1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3672D8-638C-481C-9684-5D07E3C0B8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Data_Type</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>best_ask_diff</t>
+  </si>
+  <si>
+    <t>best ask price market depth</t>
+  </si>
+  <si>
+    <t>best_ask_depth</t>
   </si>
 </sst>
 </file>
@@ -243,6 +249,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2021467</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967E10AB-BC88-5292-BCD6-1DAFA9A159D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7213601" y="781051"/>
+          <a:ext cx="1659516" cy="215899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -512,7 +562,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,7 +604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -577,7 +627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -600,55 +650,75 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.35">

--- a/Feature/Feature Pool.xlsx
+++ b/Feature/Feature Pool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wenjuan Xu\OneDrive\桌面\Graduate Study\Graduate Study\Research\Crypto_Trading\Code\Feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3672D8-638C-481C-9684-5D07E3C0B8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA52FC5-AC35-4B0E-B3F8-CBFA60516DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Data_Type</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Exchange</t>
-  </si>
-  <si>
-    <t>S/M</t>
   </si>
   <si>
     <t>Indicator_Name</t>
@@ -57,9 +54,6 @@
     <t>snapshot_25</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>best bid price difference return</t>
   </si>
   <si>
@@ -78,10 +72,31 @@
     <t>best_ask_diff</t>
   </si>
   <si>
-    <t>best ask price market depth</t>
+    <t>File_Name</t>
   </si>
   <si>
-    <t>best_ask_depth</t>
+    <t>Spot_Snapshot_Single.py</t>
+  </si>
+  <si>
+    <t>bid_5_depth</t>
+  </si>
+  <si>
+    <t>First 5 bid price market depth</t>
+  </si>
+  <si>
+    <t>First 5 ask price market depth</t>
+  </si>
+  <si>
+    <t>ask_5_depth</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>The "i" means the i-th best bid</t>
+  </si>
+  <si>
+    <t>The "i" means the i-th best ask</t>
   </si>
 </sst>
 </file>
@@ -131,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -140,6 +155,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -161,138 +179,2002 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:colOff>34925</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2235200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>244828</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD2D0C1-68FE-739B-54F0-E81007937871}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5918200" y="215900"/>
-          <a:ext cx="1917700" cy="213078"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:ext cx="3289298" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC57EB7-D029-3F51-0D7E-60CB31FF4B2F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6315075" y="247650"/>
+              <a:ext cx="3289298" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑒𝑠𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>_</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑖𝑑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>_</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑖𝑓𝑓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=(</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑒𝑠𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑖𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑒𝑠𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑖𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)/</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑒𝑠𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑖𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC57EB7-D029-3F51-0D7E-60CB31FF4B2F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6315075" y="247650"/>
+              <a:ext cx="3289298" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏𝑒𝑠𝑡_𝑏𝑖𝑑_𝑑𝑖𝑓𝑓〗_𝑡=(〖𝑏𝑒𝑠𝑡 𝑏𝑖𝑑〗_(𝑡−1)−〖𝑏𝑒𝑠𝑡 𝑏𝑖𝑑〗_1)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖𝑏𝑒𝑠𝑡 𝑏𝑖𝑑〗_1</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>22458</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2535200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598A6A0E-FB52-ED1A-B454-493F4794FB9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6874108" y="533400"/>
-          <a:ext cx="2512742" cy="165100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:ext cx="3366050" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64298A1-87F0-497D-B536-FF5FFF996584}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6308725" y="520700"/>
+              <a:ext cx="3366050" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑒𝑠𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>_</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑠𝑘</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>_</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑖𝑓𝑓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=(</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑒𝑠𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑠𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑒𝑠𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑠𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)/</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑒𝑠𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑠𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64298A1-87F0-497D-B536-FF5FFF996584}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6308725" y="520700"/>
+              <a:ext cx="3366050" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏𝑒𝑠𝑡_𝑎𝑠𝑘_𝑑𝑖𝑓𝑓〗_𝑡=(〖𝑏𝑒𝑠𝑡 𝑎𝑠𝑘〗_(𝑡−1)−〖𝑏𝑒𝑠𝑡 𝑎𝑠𝑘〗_1)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖𝑏𝑒𝑠𝑡 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑎𝑠𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_1</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
+    <xdr:ext cx="4177234" cy="285463"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468092F1-ACA9-4175-9851-38964097A69D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="1327150"/>
+              <a:ext cx="4177234" cy="285463"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑒𝑠𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>_</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑖𝑑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>_</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒𝑝𝑡h</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:limLoc m:val="subSup"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="25"/>
+                          </m:rPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:limLoc m:val="subSup"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="25"/>
+                              </m:rPr>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=1</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>5</m:t>
+                            </m:r>
+                          </m:sup>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑏𝑒𝑠𝑡</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t> </m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑏𝑖𝑑</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t> </m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑎𝑚𝑜𝑢𝑛𝑡</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑘</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>,</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>×</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑏𝑒𝑠𝑡</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t> </m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑏𝑖𝑑</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t> </m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑝𝑟𝑖𝑐𝑒</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑘</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>,</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:nary>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468092F1-ACA9-4175-9851-38964097A69D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="1327150"/>
+              <a:ext cx="4177234" cy="285463"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏𝑒𝑠𝑡_𝑏𝑖𝑑_𝑑𝑒𝑝𝑡ℎ〗_𝑡=1/(𝑡−1) ∑26_(𝑘=1)^(𝑡−1)▒∑26_(𝑖=1)^5▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖𝑏𝑒𝑠𝑡 𝑏𝑖𝑑 𝑎𝑚𝑜𝑢𝑛𝑡〗_(𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)×〖𝑏𝑒𝑠𝑡 𝑏𝑖𝑑 𝑝𝑟𝑖𝑐𝑒〗_(𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2021467</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967E10AB-BC88-5292-BCD6-1DAFA9A159D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7213601" y="781051"/>
-          <a:ext cx="1659516" cy="215899"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4269310" cy="285463"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5E00B2-0997-4831-8FA9-FB9AC5C20D16}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="1612900"/>
+              <a:ext cx="4269310" cy="285463"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑒𝑠𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>_</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑠𝑘</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>_</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑒𝑝𝑡h</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:limLoc m:val="subSup"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="25"/>
+                          </m:rPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:limLoc m:val="subSup"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="25"/>
+                              </m:rPr>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=1</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>5</m:t>
+                            </m:r>
+                          </m:sup>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑏𝑒𝑠𝑡</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t> </m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑎𝑠𝑘</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t> </m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑎𝑚𝑜𝑢𝑛𝑡</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑘</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>,</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>×</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑏𝑒𝑠𝑡</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t> </m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑎𝑠𝑘</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t> </m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑝𝑟𝑖𝑐𝑒</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑘</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>,</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:nary>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5E00B2-0997-4831-8FA9-FB9AC5C20D16}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="1612900"/>
+              <a:ext cx="4269310" cy="285463"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏𝑒𝑠𝑡_𝑎𝑠𝑘_𝑑𝑒𝑝𝑡ℎ〗_𝑡=1/(𝑡−1) ∑26_(𝑘=1)^(𝑡−1)▒∑26_(𝑖=1)^5▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖𝑏𝑒𝑠𝑡 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑎𝑠𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑎𝑚𝑜𝑢𝑛𝑡〗_(𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)×〖𝑏𝑒𝑠𝑡 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑎𝑠𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑝𝑟𝑖𝑐𝑒〗_(𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -559,10 +2441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -570,15 +2452,16 @@
     <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="29.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="61.6328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="18.6328125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -588,125 +2471,150 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="8:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -715,20 +2623,14 @@
     <row r="18" spans="8:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="8:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="8:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Feature/Feature Pool.xlsx
+++ b/Feature/Feature Pool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wenjuan Xu\OneDrive\桌面\Graduate Study\Graduate Study\Research\Crypto_Trading\Code\Feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA52FC5-AC35-4B0E-B3F8-CBFA60516DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477E5885-BBB4-4CB0-8FD5-59B4E512B271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Data_Type</t>
   </si>
@@ -78,25 +78,31 @@
     <t>Spot_Snapshot_Single.py</t>
   </si>
   <si>
-    <t>bid_5_depth</t>
-  </si>
-  <si>
-    <t>First 5 bid price market depth</t>
-  </si>
-  <si>
-    <t>First 5 ask price market depth</t>
-  </si>
-  <si>
-    <t>ask_5_depth</t>
-  </si>
-  <si>
     <t>Explanation</t>
   </si>
   <si>
-    <t>The "i" means the i-th best bid</t>
+    <t>bid_n_depth</t>
   </si>
   <si>
-    <t>The "i" means the i-th best ask</t>
+    <t>ask_n_depth</t>
+  </si>
+  <si>
+    <t>First n bid price market depth statistic</t>
+  </si>
+  <si>
+    <t>First n ask price market depth statistic</t>
+  </si>
+  <si>
+    <t>The "i" means the i-th best bid; statistic include : mean, median, std, max, min, sum</t>
+  </si>
+  <si>
+    <t>The "i" means the i-th best ask; statistic include : mean, median, std, max, min, sum</t>
+  </si>
+  <si>
+    <t>Window_Return_Statistic</t>
+  </si>
+  <si>
+    <t>window_return</t>
   </si>
 </sst>
 </file>
@@ -187,8 +193,8 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3289298" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -230,6 +236,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -391,7 +398,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -404,7 +411,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -416,7 +423,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -428,7 +435,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -442,7 +449,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -458,7 +465,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -540,8 +547,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3366050" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -583,6 +590,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -744,7 +752,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -757,7 +765,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -769,7 +777,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -795,7 +803,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -811,7 +819,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -916,7 +924,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4177234" cy="285463"/>
+    <xdr:ext cx="4189287" cy="374650"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -932,8 +940,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6921500" y="1327150"/>
-              <a:ext cx="4177234" cy="285463"/>
+              <a:off x="6921500" y="1104900"/>
+              <a:ext cx="4189287" cy="374650"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -956,10 +964,11 @@
           </xdr:style>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
+              <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1021,44 +1030,31 @@
                       </a:rPr>
                       <m:t>=</m:t>
                     </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>1</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−1</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> [</m:t>
+                    </m:r>
                     <m:nary>
                       <m:naryPr>
                         <m:chr m:val="∑"/>
                         <m:limLoc m:val="subSup"/>
                         <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:naryPr>
@@ -1067,315 +1063,295 @@
                           <m:rPr>
                             <m:brk m:alnAt="25"/>
                           </m:rPr>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑘</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                           <m:t>=1</m:t>
                         </m:r>
                       </m:sub>
                       <m:sup>
                         <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−1</m:t>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
                         </m:r>
                       </m:sup>
                       <m:e>
-                        <m:nary>
-                          <m:naryPr>
-                            <m:chr m:val="∑"/>
-                            <m:limLoc m:val="subSup"/>
+                        <m:sSub>
+                          <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
                               </a:rPr>
                             </m:ctrlPr>
-                          </m:naryPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑏𝑒𝑠𝑡</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑏𝑖𝑑</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑎𝑚𝑜𝑢𝑛𝑡</m:t>
+                            </m:r>
+                          </m:e>
                           <m:sub>
                             <m:r>
-                              <m:rPr>
-                                <m:brk m:alnAt="25"/>
-                              </m:rPr>
-                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
                               </a:rPr>
                               <m:t>𝑖</m:t>
                             </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>=1</m:t>
-                            </m:r>
                           </m:sub>
-                          <m:sup>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>5</m:t>
-                            </m:r>
-                          </m:sup>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>×</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
                           <m:e>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑏𝑒𝑠𝑡</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t> </m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑏𝑖𝑑</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t> </m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑎𝑚𝑜𝑢𝑛𝑡</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑘</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>,</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>×</m:t>
-                            </m:r>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑏𝑒𝑠𝑡</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t> </m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑏𝑖𝑑</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t> </m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑝𝑟𝑖𝑐𝑒</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑘</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>,</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑏𝑒𝑠𝑡</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑏𝑖𝑑</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑝𝑟𝑖𝑐𝑒</m:t>
+                            </m:r>
                           </m:e>
-                        </m:nary>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
                       </m:e>
                     </m:nary>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>]</m:t>
+                    </m:r>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
@@ -1398,8 +1374,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6921500" y="1327150"/>
-              <a:ext cx="4177234" cy="285463"/>
+              <a:off x="6921500" y="1104900"/>
+              <a:ext cx="4189287" cy="374650"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1422,10 +1398,11 @@
           </xdr:style>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
+              <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-CA" sz="900" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1436,7 +1413,7 @@
                 <a:rPr lang="en-CA" sz="900" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑏𝑒𝑠𝑡_𝑏𝑖𝑑_𝑑𝑒𝑝𝑡ℎ〗_𝑡=1/(𝑡−1) ∑26_(𝑘=1)^(𝑡−1)▒∑26_(𝑖=1)^5▒〖</a:t>
+                <a:t>𝑏𝑒𝑠𝑡_𝑏𝑖𝑑_𝑑𝑒𝑝𝑡ℎ〗_𝑡=𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐 [</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-CA" sz="1100" b="0" i="0">
@@ -1448,7 +1425,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖𝑏𝑒𝑠𝑡 𝑏𝑖𝑑 𝑎𝑚𝑜𝑢𝑛𝑡〗_(𝑘</a:t>
+                <a:t>∑2_(𝑖=1)^</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-CA" sz="1100" b="0" i="0">
@@ -1460,7 +1437,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>,𝑖</a:t>
+                <a:t>𝑛</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-CA" sz="1100" b="0" i="0">
@@ -1472,43 +1449,13 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)×〖𝑏𝑒𝑠𝑡 𝑏𝑖𝑑 𝑝𝑟𝑖𝑐𝑒〗_(𝑘</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>,𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
+                <a:t>▒〖〖𝑏𝑒𝑠𝑡 𝑏𝑖𝑑 𝑎𝑚𝑜𝑢𝑛𝑡〗_(𝑘,𝑖)×〖𝑏𝑒𝑠𝑡 𝑏𝑖𝑑 𝑝𝑟𝑖𝑐𝑒〗_(𝑘,𝑖) 〗</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-CA" sz="900" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> 〗</a:t>
+                <a:t>]</a:t>
               </a:r>
               <a:endParaRPr lang="en-CA" sz="900"/>
             </a:p>
@@ -1525,15 +1472,15 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4269310" cy="285463"/>
+    <xdr:ext cx="4189287" cy="374650"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="TextBox 10">
+            <xdr:cNvPr id="3" name="TextBox 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5E00B2-0997-4831-8FA9-FB9AC5C20D16}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DB756D-13F6-4F02-B62A-6D2594517B71}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1541,8 +1488,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6921500" y="1612900"/>
-              <a:ext cx="4269310" cy="285463"/>
+              <a:off x="6921500" y="1473200"/>
+              <a:ext cx="4189287" cy="374650"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1565,10 +1512,11 @@
           </xdr:style>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
+              <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1630,44 +1578,31 @@
                       </a:rPr>
                       <m:t>=</m:t>
                     </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>1</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−1</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> [</m:t>
+                    </m:r>
                     <m:nary>
                       <m:naryPr>
                         <m:chr m:val="∑"/>
                         <m:limLoc m:val="subSup"/>
                         <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:naryPr>
@@ -1676,315 +1611,295 @@
                           <m:rPr>
                             <m:brk m:alnAt="25"/>
                           </m:rPr>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑘</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
                           <m:t>=1</m:t>
                         </m:r>
                       </m:sub>
                       <m:sup>
                         <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−1</m:t>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
                         </m:r>
                       </m:sup>
                       <m:e>
-                        <m:nary>
-                          <m:naryPr>
-                            <m:chr m:val="∑"/>
-                            <m:limLoc m:val="subSup"/>
+                        <m:sSub>
+                          <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑏𝑒𝑠𝑡</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑎𝑠𝑘</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑎𝑚𝑜𝑢𝑛𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>×</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
                               </a:rPr>
                             </m:ctrlPr>
-                          </m:naryPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑏𝑒𝑠𝑡</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑎𝑠𝑘</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t> </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑝𝑟𝑖𝑐𝑒</m:t>
+                            </m:r>
+                          </m:e>
                           <m:sub>
                             <m:r>
-                              <m:rPr>
-                                <m:brk m:alnAt="25"/>
-                              </m:rPr>
-                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
                               </a:rPr>
                               <m:t>𝑖</m:t>
                             </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>=1</m:t>
-                            </m:r>
                           </m:sub>
-                          <m:sup>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>5</m:t>
-                            </m:r>
-                          </m:sup>
-                          <m:e>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑏𝑒𝑠𝑡</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t> </m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑎𝑠𝑘</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t> </m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑎𝑚𝑜𝑢𝑛𝑡</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑘</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>,</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>×</m:t>
-                            </m:r>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑏𝑒𝑠𝑡</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t> </m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑎𝑠𝑘</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t> </m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑝𝑟𝑖𝑐𝑒</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑘</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>,</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:e>
-                        </m:nary>
+                        </m:sSub>
                       </m:e>
                     </m:nary>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>]</m:t>
+                    </m:r>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
@@ -1996,10 +1911,10 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="TextBox 10">
+            <xdr:cNvPr id="3" name="TextBox 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5E00B2-0997-4831-8FA9-FB9AC5C20D16}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DB756D-13F6-4F02-B62A-6D2594517B71}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2007,8 +1922,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6921500" y="1612900"/>
-              <a:ext cx="4269310" cy="285463"/>
+              <a:off x="6921500" y="1473200"/>
+              <a:ext cx="4189287" cy="374650"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2031,10 +1946,11 @@
           </xdr:style>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
+              <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-CA" sz="900" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2045,7 +1961,7 @@
                 <a:rPr lang="en-CA" sz="900" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑏𝑒𝑠𝑡_𝑎𝑠𝑘_𝑑𝑒𝑝𝑡ℎ〗_𝑡=1/(𝑡−1) ∑26_(𝑘=1)^(𝑡−1)▒∑26_(𝑖=1)^5▒〖</a:t>
+                <a:t>𝑏𝑒𝑠𝑡_𝑎𝑠𝑘_𝑑𝑒𝑝𝑡ℎ〗_𝑡=𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐 [</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-CA" sz="1100" b="0" i="0">
@@ -2057,7 +1973,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖𝑏𝑒𝑠𝑡 </a:t>
+                <a:t>∑2_(𝑖=1)^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>▒〖〖𝑏𝑒𝑠𝑡 </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-CA" sz="1100" b="0" i="0">
@@ -2081,31 +2021,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> 𝑎𝑚𝑜𝑢𝑛𝑡〗_(𝑘</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>,𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)×〖𝑏𝑒𝑠𝑡 </a:t>
+                <a:t> 𝑎𝑚𝑜𝑢𝑛𝑡〗_(𝑘,𝑖)×〖𝑏𝑒𝑠𝑡 </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-CA" sz="1100" b="0" i="0">
@@ -2129,43 +2045,13 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> 𝑝𝑟𝑖𝑐𝑒〗_(𝑘</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>,𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
+                <a:t> 𝑝𝑟𝑖𝑐𝑒〗_(𝑘,𝑖) 〗</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-CA" sz="900" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> 〗</a:t>
+                <a:t>]</a:t>
               </a:r>
               <a:endParaRPr lang="en-CA" sz="900"/>
             </a:p>
@@ -2444,10 +2330,10 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
@@ -2461,7 +2347,7 @@
     <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2487,10 +2373,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2513,7 +2399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2536,7 +2422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2547,10 +2433,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
@@ -2560,7 +2446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2571,10 +2457,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
@@ -2584,52 +2470,61 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="8:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="8:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H21" s="3"/>
     </row>
   </sheetData>

--- a/Feature/Feature Pool.xlsx
+++ b/Feature/Feature Pool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wenjuan Xu\OneDrive\桌面\Graduate Study\Graduate Study\Research\Crypto_Trading\Code\Feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477E5885-BBB4-4CB0-8FD5-59B4E512B271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2FCA96-2214-4479-963A-AB8B19855C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="20" windowWidth="19180" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Data_Type</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>window_return</t>
+  </si>
+  <si>
+    <t>incremental_book_L2</t>
+  </si>
+  <si>
+    <t>order_frequency</t>
+  </si>
+  <si>
+    <t>consider ask side/bid side/ total side</t>
+  </si>
+  <si>
+    <t>spread_return</t>
+  </si>
+  <si>
+    <t>bid_ask_spread_return_statistic</t>
   </si>
 </sst>
 </file>
@@ -925,8 +940,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -1052,7 +1067,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1068,7 +1083,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1080,7 +1095,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1110,7 +1125,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1123,7 +1138,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1135,7 +1150,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1147,7 +1162,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1159,7 +1174,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1171,7 +1186,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1185,7 +1200,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1197,7 +1212,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1209,7 +1224,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1223,7 +1238,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1237,7 +1252,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1250,7 +1265,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1262,7 +1277,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1274,7 +1289,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1286,7 +1301,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1298,7 +1313,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1312,7 +1327,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1324,7 +1339,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1336,7 +1351,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1360,7 +1375,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -1473,8 +1488,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1600,7 +1615,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1616,7 +1631,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1628,7 +1643,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1658,7 +1673,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1671,7 +1686,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1683,7 +1698,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1707,7 +1722,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1719,7 +1734,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1733,7 +1748,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1745,7 +1760,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1757,7 +1772,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1771,7 +1786,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1785,7 +1800,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1798,7 +1813,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1810,7 +1825,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1834,7 +1849,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1846,7 +1861,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1860,7 +1875,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1872,7 +1887,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1884,7 +1899,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1908,7 +1923,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2052,6 +2067,233 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4189287" cy="374650"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9E4F72-72D0-4918-A6CF-A837C9A61252}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="2209800"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑠𝑝𝑟𝑒𝑎𝑑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>_</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑟𝑒𝑡𝑢𝑟𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> [</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎𝑠𝑘</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑏𝑖𝑑</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑖𝑑𝑑𝑙𝑒</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>]</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9E4F72-72D0-4918-A6CF-A837C9A61252}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="2209800"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑠𝑝𝑟𝑒𝑎𝑑_𝑟𝑒𝑡𝑢𝑟𝑛〗_𝑡=𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐 [(𝑎𝑠𝑘−𝑏𝑖𝑑)/𝑚𝑖𝑑𝑑𝑙𝑒]</a:t>
               </a:r>
               <a:endParaRPr lang="en-CA" sz="900"/>
             </a:p>
@@ -2330,14 +2572,14 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.7265625" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.90625" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.90625" style="3" customWidth="1"/>
@@ -2354,7 +2596,7 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2383,7 +2625,7 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2406,7 +2648,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2429,7 +2671,7 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2453,7 +2695,7 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2471,6 +2713,15 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
@@ -2483,7 +2734,27 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H7" s="3"/>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H8" s="3"/>
@@ -2498,7 +2769,22 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H13" s="3"/>

--- a/Feature/Feature Pool.xlsx
+++ b/Feature/Feature Pool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wenjuan Xu\OneDrive\桌面\Graduate Study\Graduate Study\Research\Crypto_Trading\Code\Feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2FCA96-2214-4479-963A-AB8B19855C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285265C4-1AB4-4DBC-997A-CAC248B69B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="20" windowWidth="19180" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
     <t>Data_Type</t>
   </si>
@@ -118,6 +118,51 @@
   </si>
   <si>
     <t>bid_ask_spread_return_statistic</t>
+  </si>
+  <si>
+    <t>Snapshot_Derivative</t>
+  </si>
+  <si>
+    <t>snapshot_derivative</t>
+  </si>
+  <si>
+    <t>first order derivative of ask/bid/amount/mid</t>
+  </si>
+  <si>
+    <t>Numer_of_Events</t>
+  </si>
+  <si>
+    <t>num_event</t>
+  </si>
+  <si>
+    <t># of events happened in last period</t>
+  </si>
+  <si>
+    <t>semi_std</t>
+  </si>
+  <si>
+    <t>Semi_Std</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Feature Engineering for Mid-Price Prediction with Deep Learning arXiv: Statistical Finance.</t>
+  </si>
+  <si>
+    <t>bipower_var</t>
+  </si>
+  <si>
+    <t>Realized bipower variation</t>
+  </si>
+  <si>
+    <t>Realized quarticity</t>
+  </si>
+  <si>
+    <t>realized_quarticity</t>
+  </si>
+  <si>
+    <t>Snapshot Volumn Imbalance</t>
+  </si>
+  <si>
+    <t>snapshot_vol_imbalance</t>
   </si>
 </sst>
 </file>
@@ -2084,8 +2129,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2240,7 +2285,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2294,6 +2339,2289 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝑠𝑝𝑟𝑒𝑎𝑑_𝑟𝑒𝑡𝑢𝑟𝑛〗_𝑡=𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐 [(𝑎𝑠𝑘−𝑏𝑖𝑑)/𝑚𝑖𝑑𝑑𝑙𝑒]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4189287" cy="374650"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624A89C5-1DF1-48CC-B490-FB323E78DCD3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="2946400"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅𝑆𝑉</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:limLoc m:val="subSup"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="25"/>
+                          </m:rPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>=1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑋</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑟</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑋</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>&gt;0)</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:nary>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>  ;  </m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑅𝑆𝑉</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:limLoc m:val="subSup"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="25"/>
+                          </m:rPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>=1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑋</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑟</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑋</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>&lt;</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>0)</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624A89C5-1DF1-48CC-B490-FB323E78DCD3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="2946400"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖𝑅𝑆𝑉〗^+ 〖(𝑋)〗_𝑡=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑2_(𝑖=1)^𝑛▒〖𝑟〖(𝑋)〗_𝑖^2  1_((𝑟(𝑋)_𝑖&gt;0)) 〗   ;  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖𝑅𝑆𝑉〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 〖(𝑋)〗_𝑡=∑2_(𝑖=1)^𝑛▒〖𝑟〖(𝑋)〗_𝑖^2  1_((𝑟(𝑋)_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>&lt;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0)) 〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4189287" cy="374650"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5BEB82-AD2F-46FF-932F-14F3758DFAC5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="3314700"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐵𝑉</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜋</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:limLoc m:val="subSup"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="25"/>
+                          </m:rPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:begChr m:val="|"/>
+                            <m:endChr m:val="|"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑟</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑋</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>|</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑋</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑘</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>|</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5BEB82-AD2F-46FF-932F-14F3758DFAC5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="3314700"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐵𝑉〖(𝑋)〗_𝑡=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜋/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ∑2_(𝑖=𝑘+1)^𝑛▒〖|</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑟(𝑋)_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ||</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑟(𝑋)_(𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−𝑘</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> |〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4189287" cy="374650"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D237EF-A109-4A1D-9225-3DEE4E09AA27}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="3683000"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑅𝑄</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:limLoc m:val="subSup"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="25"/>
+                          </m:rPr>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>=1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑟</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑋</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D237EF-A109-4A1D-9225-3DEE4E09AA27}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="3683000"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅𝑄〖(𝑋)〗_𝑡=𝑛/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ∑2_(𝑖=1)^𝑛▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑟(𝑋)_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^4 </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4189287" cy="374650"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4684B34D-C9F6-4538-AC2A-F918EEEC16D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="4051300"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑉𝑜𝑙𝑢𝑚𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐼𝑚𝑏𝑎𝑙𝑎𝑛𝑐𝑒</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑉</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑏𝑖𝑑</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑉</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑏𝑖𝑑</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑉</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑎𝑠𝑘</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4684B34D-C9F6-4538-AC2A-F918EEEC16D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="4051300"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖𝑉𝑜𝑙𝑢𝑚𝑛 𝐼𝑚𝑏𝑎𝑙𝑎𝑛𝑐𝑒〗_𝑡=𝑉_(𝑏𝑖𝑑,𝑡)/(𝑉_(𝑏𝑖𝑑,𝑡)+𝑉_(𝑎𝑠𝑘,𝑡) )</a:t>
               </a:r>
               <a:endParaRPr lang="en-CA" sz="900"/>
             </a:p>
@@ -2569,10 +4897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2631,7 +4960,7 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -2654,7 +4983,7 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -2677,7 +5006,7 @@
       <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -2701,7 +5030,7 @@
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -2746,7 +5075,7 @@
       <c r="D7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -2757,16 +5086,99 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="3"/>
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H11" s="3"/>
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -2776,42 +5188,102 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
       <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="8:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="8:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="8:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="8:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="8:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="3"/>
       <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Feature/Feature Pool.xlsx
+++ b/Feature/Feature Pool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wenjuan Xu\OneDrive\桌面\Graduate Study\Graduate Study\Research\Crypto_Trading\Code\Feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285265C4-1AB4-4DBC-997A-CAC248B69B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECF3AD8-CEE1-4944-A5A5-C77B8518EA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>Data_Type</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>snapshot_vol_imbalance</t>
+  </si>
+  <si>
+    <t>Difference_of_Average</t>
+  </si>
+  <si>
+    <t>diff_ma</t>
+  </si>
+  <si>
+    <t>Technique_Single.py</t>
   </si>
 </sst>
 </file>
@@ -2356,8 +2365,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2788,7 +2797,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2801,7 +2810,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2831,7 +2840,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2844,7 +2853,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2856,7 +2865,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2868,7 +2877,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2882,7 +2891,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2896,7 +2905,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2912,7 +2921,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2928,7 +2937,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2940,7 +2949,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2954,7 +2963,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2968,7 +2977,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2982,7 +2991,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2995,7 +3004,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3007,7 +3016,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3019,7 +3028,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3033,7 +3042,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3047,7 +3056,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3061,7 +3070,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3075,7 +3084,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3088,7 +3097,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3102,7 +3111,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3114,7 +3123,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3128,7 +3137,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3143,7 +3152,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3156,7 +3165,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3172,7 +3181,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3190,19 +3199,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>&lt;</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>0)</m:t>
+                              <m:t>&lt;0)</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -3216,7 +3213,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -3353,8 +3350,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -3585,7 +3582,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3599,7 +3596,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3614,7 +3611,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3627,7 +3624,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -3643,7 +3640,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3671,7 +3668,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3685,7 +3682,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3700,7 +3697,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3713,7 +3710,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3729,7 +3726,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3783,7 +3780,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -3945,8 +3942,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -4150,7 +4147,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4164,7 +4161,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4179,7 +4176,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -4192,7 +4189,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -4208,7 +4205,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -4242,7 +4239,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -4343,8 +4340,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -4574,7 +4571,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -4901,7 +4898,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5204,7 +5201,15 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">

--- a/Feature/Feature Pool.xlsx
+++ b/Feature/Feature Pool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wenjuan Xu\OneDrive\桌面\Graduate Study\Graduate Study\Research\Crypto_Trading\Code\Feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECF3AD8-CEE1-4944-A5A5-C77B8518EA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CBF032-32FF-42B2-A789-DF2FC6BCB1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="58">
   <si>
     <t>Data_Type</t>
   </si>
@@ -168,10 +168,37 @@
     <t>Difference_of_Average</t>
   </si>
   <si>
-    <t>diff_ma</t>
+    <t>Technique_Single.py</t>
   </si>
   <si>
-    <t>Technique_Single.py</t>
+    <t>diff_middle_ma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A hybrid genetic-neural architecture for stock indexes forecasting</t>
+  </si>
+  <si>
+    <t>Difference_of_EMA</t>
+  </si>
+  <si>
+    <t>diff_middle_ema</t>
+  </si>
+  <si>
+    <t>A. Hryshko, &amp; Tom Downs (2004). System for foreign exchange trading using genetic algorithms and reinforcement learning International Journal of Systems Science.</t>
+  </si>
+  <si>
+    <t>Slow_Stocastic</t>
+  </si>
+  <si>
+    <t>slow_sto</t>
+  </si>
+  <si>
+    <t>RSI</t>
+  </si>
+  <si>
+    <t>rsi</t>
+  </si>
+  <si>
+    <t>see paper</t>
   </si>
 </sst>
 </file>
@@ -195,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +232,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,6 +266,12 @@
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -4619,6 +4658,953 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>〖𝑉𝑜𝑙𝑢𝑚𝑛 𝐼𝑚𝑏𝑎𝑙𝑎𝑛𝑐𝑒〗_𝑡=𝑉_(𝑏𝑖𝑑,𝑡)/(𝑉_(𝑏𝑖𝑑,𝑡)+𝑉_(𝑎𝑠𝑘,𝑡) )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4189287" cy="374650"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28963C25-9754-4EBE-9209-BF26536B30E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="4419600"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷𝑂𝑀</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑆h𝑜𝑟𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑀𝐴</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿𝑜𝑛𝑔</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑀𝐴</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28963C25-9754-4EBE-9209-BF26536B30E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="4419600"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖𝐷𝑂𝑀〗_𝑡=〖𝑆ℎ𝑜𝑟𝑡 𝑀𝐴〗_𝑡−〖𝐿𝑜𝑛𝑔 𝑀𝐴〗_𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4189287" cy="374650"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F215A7-5B1C-45FF-8C45-77798D08EB86}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="5156200"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷𝑂𝑀</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑆h𝑜𝑟𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸𝑀𝐴</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐿𝑜𝑛𝑔</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸𝑀𝐴</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F215A7-5B1C-45FF-8C45-77798D08EB86}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="5156200"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖𝐷𝑂𝑀〗_𝑡=〖𝑆ℎ𝑜𝑟𝑡 𝐸𝑀𝐴〗_𝑡−〖𝐿𝑜𝑛𝑔 𝐸𝑀𝐴〗_𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4189287" cy="374650"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBAC7DD-6F26-462D-8622-81BD8C06F6DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="5524500"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>% </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=100</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐶𝑙𝑜𝑠𝑒</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐿𝑜𝑤</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑝𝑒𝑟𝑖𝑜𝑑</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐻𝑖𝑔h</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑝𝑒𝑟𝑖𝑜𝑑</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐿𝑜𝑤</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑝𝑒𝑟𝑖𝑜𝑑</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBAC7DD-6F26-462D-8622-81BD8C06F6DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="5524500"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>% 𝐾_𝑡=100</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(〖𝐶𝑙𝑜𝑠𝑒〗_𝑡−〖𝐿𝑜𝑤〗_(𝑡,𝑝𝑒𝑟𝑖𝑜𝑑))/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖𝐻𝑖𝑔ℎ〗_(𝑡,𝑝𝑒𝑟𝑖𝑜𝑑)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐿𝑜𝑤</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_(𝑡,𝑝𝑒𝑟𝑖𝑜𝑑)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )</a:t>
               </a:r>
               <a:endParaRPr lang="en-CA" sz="900"/>
             </a:p>
@@ -4894,11 +5880,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5201,39 +6187,87 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="3"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="1"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>28</v>
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="1"/>
-      <c r="H15" s="3"/>
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -5241,54 +6275,96 @@
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="H17" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>36</v>
-      </c>
+    <row r="18" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="3"/>
+    <row r="22" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H22" s="3"/>
+      <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E23" s="3"/>
       <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Feature/Feature Pool.xlsx
+++ b/Feature/Feature Pool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wenjuan Xu\OneDrive\桌面\Graduate Study\Graduate Study\Research\Crypto_Trading\Code\Feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CBF032-32FF-42B2-A789-DF2FC6BCB1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2A7DAB-028F-4DA8-B790-A03003023E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
   <si>
     <t>Data_Type</t>
   </si>
@@ -199,6 +199,72 @@
   </si>
   <si>
     <t>see paper</t>
+  </si>
+  <si>
+    <t>Disparity</t>
+  </si>
+  <si>
+    <t>disparity</t>
+  </si>
+  <si>
+    <t>Artificial neural networks with evolutionary instance selection for financial forecasting</t>
+  </si>
+  <si>
+    <t>trades</t>
+  </si>
+  <si>
+    <t>Bi-side_Trade_Volumn</t>
+  </si>
+  <si>
+    <t>Spot_Trade_Single.py</t>
+  </si>
+  <si>
+    <t>One-side_Trade_Volumn</t>
+  </si>
+  <si>
+    <t>biside_trade_volumn</t>
+  </si>
+  <si>
+    <t>oneside_trade_volumn</t>
+  </si>
+  <si>
+    <t>Trade_Volumn_Imbalance</t>
+  </si>
+  <si>
+    <t>trade_volumn_imbalance</t>
+  </si>
+  <si>
+    <t>Bi-side_Trade_Frequency</t>
+  </si>
+  <si>
+    <t>biside_trade_frequency</t>
+  </si>
+  <si>
+    <t>oneside_trade_frequency</t>
+  </si>
+  <si>
+    <t>trade_frequency_imbalance</t>
+  </si>
+  <si>
+    <t>Trade_Frequency_Imbalance</t>
+  </si>
+  <si>
+    <t>One-side_Trade_Frequency</t>
+  </si>
+  <si>
+    <t>Trade_Volumn_Derivative</t>
+  </si>
+  <si>
+    <t>Trade_Frequency_Derivative</t>
+  </si>
+  <si>
+    <t>trade_volumn_derivative</t>
+  </si>
+  <si>
+    <t>trade_frequency_derivative</t>
+  </si>
+  <si>
+    <t>second_derivative</t>
   </si>
 </sst>
 </file>
@@ -4675,8 +4741,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -4844,7 +4910,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -4909,8 +4975,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -5078,7 +5144,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -5143,8 +5209,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -5324,7 +5390,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5337,7 +5403,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5351,7 +5417,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5363,7 +5429,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5375,7 +5441,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5403,7 +5469,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5430,7 +5496,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5442,7 +5508,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5454,7 +5520,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5472,7 +5538,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -5605,6 +5671,297 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t> )</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4189287" cy="374650"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F339699F-43A0-4C67-8C97-5CD2323C879C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="6261100"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷𝑖𝑠𝑝𝑎𝑟𝑖𝑡𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=100</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐶𝑙𝑜𝑠𝑒</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑀𝐴</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑝𝑒𝑟𝑖𝑜𝑑</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F339699F-43A0-4C67-8C97-5CD2323C879C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="6261100"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖𝐷𝑖𝑠𝑝𝑎𝑟𝑖𝑡𝑦〗_𝑡=100</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖𝐶𝑙𝑜𝑠𝑒〗_𝑡/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖𝑀𝐴〗_(𝑡,𝑝𝑒𝑟𝑖𝑜𝑑) </a:t>
               </a:r>
               <a:endParaRPr lang="en-CA" sz="900"/>
             </a:p>
@@ -5880,11 +6237,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:H18"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6294,15 +6651,58 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="3"/>
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -6313,16 +6713,18 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="22" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -6332,39 +6734,186 @@
         <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="3"/>
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H23" s="3"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="3"/>
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H24" s="3"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="3"/>
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H25" s="3"/>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="3"/>
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="3"/>
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Feature/Feature Pool.xlsx
+++ b/Feature/Feature Pool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wenjuan Xu\OneDrive\桌面\Graduate Study\Graduate Study\Research\Crypto_Trading\Code\Feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2A7DAB-028F-4DA8-B790-A03003023E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF0CF6A-8188-4B6D-868E-996DCA6B4B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
   <si>
     <t>Data_Type</t>
   </si>
@@ -213,45 +213,21 @@
     <t>trades</t>
   </si>
   <si>
-    <t>Bi-side_Trade_Volumn</t>
-  </si>
-  <si>
     <t>Spot_Trade_Single.py</t>
   </si>
   <si>
-    <t>One-side_Trade_Volumn</t>
-  </si>
-  <si>
-    <t>biside_trade_volumn</t>
-  </si>
-  <si>
-    <t>oneside_trade_volumn</t>
-  </si>
-  <si>
     <t>Trade_Volumn_Imbalance</t>
   </si>
   <si>
     <t>trade_volumn_imbalance</t>
   </si>
   <si>
-    <t>Bi-side_Trade_Frequency</t>
-  </si>
-  <si>
-    <t>biside_trade_frequency</t>
-  </si>
-  <si>
-    <t>oneside_trade_frequency</t>
-  </si>
-  <si>
     <t>trade_frequency_imbalance</t>
   </si>
   <si>
     <t>Trade_Frequency_Imbalance</t>
   </si>
   <si>
-    <t>One-side_Trade_Frequency</t>
-  </si>
-  <si>
     <t>Trade_Volumn_Derivative</t>
   </si>
   <si>
@@ -264,7 +240,37 @@
     <t>trade_frequency_derivative</t>
   </si>
   <si>
-    <t>second_derivative</t>
+    <t>Trade_Volumn_Second_Derivative</t>
+  </si>
+  <si>
+    <t>trade_volumn_derivative_2nd</t>
+  </si>
+  <si>
+    <t>Trade_Frequency_Second_Derivative</t>
+  </si>
+  <si>
+    <t>trade_frequency_derivative_2nd</t>
+  </si>
+  <si>
+    <t>Order_Volumn</t>
+  </si>
+  <si>
+    <t>Trade_Volumn</t>
+  </si>
+  <si>
+    <t>trade_volumn</t>
+  </si>
+  <si>
+    <t>Trade_Frequency</t>
+  </si>
+  <si>
+    <t>trade_frequency</t>
+  </si>
+  <si>
+    <t>order_volumn</t>
+  </si>
+  <si>
+    <t>Spot_Incremental_Single.py</t>
   </si>
 </sst>
 </file>
@@ -5688,8 +5694,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -5889,13 +5895,304 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F339699F-43A0-4C67-8C97-5CD2323C879C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="6261100"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖𝐷𝑖𝑠𝑝𝑎𝑟𝑖𝑡𝑦〗_𝑡=100</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖𝐶𝑙𝑜𝑠𝑒〗_𝑡/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖𝑀𝐴〗_(𝑡,𝑝𝑒𝑟𝑖𝑜𝑑) </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4189287" cy="374650"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72682AEB-6565-4C11-8A69-B562B309ED54}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6921500" y="6261100"/>
+              <a:ext cx="4189287" cy="374650"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷𝑖𝑠𝑝𝑎𝑟𝑖𝑡𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=100</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐶𝑙𝑜𝑠𝑒</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="900" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑀𝐴</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>,</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑝𝑒𝑟𝑖𝑜𝑑</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72682AEB-6565-4C11-8A69-B562B309ED54}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6240,8 +6537,8 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6695,13 +6992,13 @@
         <v>61</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -6716,15 +7013,16 @@
         <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="3"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -6737,13 +7035,13 @@
         <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="1"/>
@@ -6759,13 +7057,13 @@
         <v>61</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="1"/>
@@ -6781,16 +7079,15 @@
         <v>61</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -6803,16 +7100,15 @@
         <v>61</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -6825,13 +7121,13 @@
         <v>61</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -6846,22 +7142,46 @@
         <v>61</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E29" s="3"/>
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -6869,9 +7189,6 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="E31" s="3"/>
       <c r="H31" s="3"/>
     </row>

--- a/Feature/Feature Pool.xlsx
+++ b/Feature/Feature Pool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wenjuan Xu\OneDrive\桌面\Graduate Study\Graduate Study\Research\Crypto_Trading\Code\Feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF0CF6A-8188-4B6D-868E-996DCA6B4B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E98D084-BECB-4327-BD8E-0205AB9708C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="77">
   <si>
     <t>Data_Type</t>
   </si>
@@ -54,24 +54,12 @@
     <t>snapshot_25</t>
   </si>
   <si>
-    <t>best bid price difference return</t>
-  </si>
-  <si>
     <t>Novel Modelling Strategies for High-frequency Stock Trading Data</t>
   </si>
   <si>
-    <t>best_bid_diff</t>
-  </si>
-  <si>
     <t>Function_Name</t>
   </si>
   <si>
-    <t>best ask price difference return</t>
-  </si>
-  <si>
-    <t>best_ask_diff</t>
-  </si>
-  <si>
     <t>File_Name</t>
   </si>
   <si>
@@ -81,30 +69,9 @@
     <t>Explanation</t>
   </si>
   <si>
-    <t>bid_n_depth</t>
-  </si>
-  <si>
-    <t>ask_n_depth</t>
-  </si>
-  <si>
-    <t>First n bid price market depth statistic</t>
-  </si>
-  <si>
-    <t>First n ask price market depth statistic</t>
-  </si>
-  <si>
     <t>The "i" means the i-th best bid; statistic include : mean, median, std, max, min, sum</t>
   </si>
   <si>
-    <t>The "i" means the i-th best ask; statistic include : mean, median, std, max, min, sum</t>
-  </si>
-  <si>
-    <t>Window_Return_Statistic</t>
-  </si>
-  <si>
-    <t>window_return</t>
-  </si>
-  <si>
     <t>incremental_book_L2</t>
   </si>
   <si>
@@ -271,6 +238,24 @@
   </si>
   <si>
     <t>Spot_Incremental_Single.py</t>
+  </si>
+  <si>
+    <t>best price difference return</t>
+  </si>
+  <si>
+    <t>best_diff</t>
+  </si>
+  <si>
+    <t>First n price market depth statistic</t>
+  </si>
+  <si>
+    <t>n_depth</t>
+  </si>
+  <si>
+    <t>Middle_Price_Momentun</t>
+  </si>
+  <si>
+    <t>middle_mom</t>
   </si>
 </sst>
 </file>
@@ -368,1884 +353,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3289298" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC57EB7-D029-3F51-0D7E-60CB31FF4B2F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6315075" y="247650"/>
-              <a:ext cx="3289298" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑏𝑒𝑠𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>_</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑏𝑖𝑑</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>_</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑑𝑖𝑓𝑓</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=(</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑏𝑒𝑠𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑏𝑖𝑑</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−1</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>−</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑏𝑒𝑠𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑏𝑖𝑑</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>1</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>)/</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑏𝑒𝑠𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑏𝑖𝑑</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>1</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-CA" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC57EB7-D029-3F51-0D7E-60CB31FF4B2F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6315075" y="247650"/>
-              <a:ext cx="3289298" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑏𝑒𝑠𝑡_𝑏𝑖𝑑_𝑑𝑖𝑓𝑓〗_𝑡=(〖𝑏𝑒𝑠𝑡 𝑏𝑖𝑑〗_(𝑡−1)−〖𝑏𝑒𝑠𝑡 𝑏𝑖𝑑〗_1)/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖𝑏𝑒𝑠𝑡 𝑏𝑖𝑑〗_1</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-CA" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3366050" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64298A1-87F0-497D-B536-FF5FFF996584}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6308725" y="520700"/>
-              <a:ext cx="3366050" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑏𝑒𝑠𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>_</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑎𝑠𝑘</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>_</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑑𝑖𝑓𝑓</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=(</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑏𝑒𝑠𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑎𝑠𝑘</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−1</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>−</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑏𝑒𝑠𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑎𝑠𝑘</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>1</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>)/</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑏𝑒𝑠𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑎𝑠𝑘</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>1</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-CA" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64298A1-87F0-497D-B536-FF5FFF996584}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6308725" y="520700"/>
-              <a:ext cx="3366050" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑏𝑒𝑠𝑡_𝑎𝑠𝑘_𝑑𝑖𝑓𝑓〗_𝑡=(〖𝑏𝑒𝑠𝑡 𝑎𝑠𝑘〗_(𝑡−1)−〖𝑏𝑒𝑠𝑡 𝑎𝑠𝑘〗_1)/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖𝑏𝑒𝑠𝑡 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑎𝑠𝑘</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〗_1</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-CA" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4189287" cy="374650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="TextBox 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468092F1-ACA9-4175-9851-38964097A69D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6921500" y="1104900"/>
-              <a:ext cx="4189287" cy="374650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="900" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑏𝑒𝑠𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>_</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑏𝑖𝑑</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>_</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑑𝑒𝑝𝑡h</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> [</m:t>
-                    </m:r>
-                    <m:nary>
-                      <m:naryPr>
-                        <m:chr m:val="∑"/>
-                        <m:limLoc m:val="subSup"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:naryPr>
-                      <m:sub>
-                        <m:r>
-                          <m:rPr>
-                            <m:brk m:alnAt="25"/>
-                          </m:rPr>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>=1</m:t>
-                        </m:r>
-                      </m:sub>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑛</m:t>
-                        </m:r>
-                      </m:sup>
-                      <m:e>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑏𝑒𝑠𝑡</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t> </m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑏𝑖𝑑</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t> </m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑎𝑚𝑜𝑢𝑛𝑡</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑘</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>×</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑏𝑒𝑠𝑡</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t> </m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑏𝑖𝑑</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t> </m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑝𝑟𝑖𝑐𝑒</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑘</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:e>
-                    </m:nary>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>]</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-CA" sz="900"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="TextBox 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468092F1-ACA9-4175-9851-38964097A69D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6921500" y="1104900"/>
-              <a:ext cx="4189287" cy="374650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-CA" sz="900" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="900" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑏𝑒𝑠𝑡_𝑏𝑖𝑑_𝑑𝑒𝑝𝑡ℎ〗_𝑡=𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐 [</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>∑2_(𝑖=1)^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑛</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>▒〖〖𝑏𝑒𝑠𝑡 𝑏𝑖𝑑 𝑎𝑚𝑜𝑢𝑛𝑡〗_(𝑘,𝑖)×〖𝑏𝑒𝑠𝑡 𝑏𝑖𝑑 𝑝𝑟𝑖𝑐𝑒〗_(𝑘,𝑖) 〗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="900" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>]</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-CA" sz="900"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4189287" cy="374650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DB756D-13F6-4F02-B62A-6D2594517B71}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6921500" y="1473200"/>
-              <a:ext cx="4189287" cy="374650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="900" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑏𝑒𝑠𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>_</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑎𝑠𝑘</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>_</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑑𝑒𝑝𝑡h</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> [</m:t>
-                    </m:r>
-                    <m:nary>
-                      <m:naryPr>
-                        <m:chr m:val="∑"/>
-                        <m:limLoc m:val="subSup"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:naryPr>
-                      <m:sub>
-                        <m:r>
-                          <m:rPr>
-                            <m:brk m:alnAt="25"/>
-                          </m:rPr>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>=1</m:t>
-                        </m:r>
-                      </m:sub>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑛</m:t>
-                        </m:r>
-                      </m:sup>
-                      <m:e>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑏𝑒𝑠𝑡</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t> </m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑎𝑠𝑘</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t> </m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑎𝑚𝑜𝑢𝑛𝑡</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑘</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>×</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑏𝑒𝑠𝑡</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t> </m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑎𝑠𝑘</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t> </m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑝𝑟𝑖𝑐𝑒</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑘</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>,</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:e>
-                    </m:nary>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>]</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-CA" sz="900"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DB756D-13F6-4F02-B62A-6D2594517B71}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6921500" y="1473200"/>
-              <a:ext cx="4189287" cy="374650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-CA" sz="900" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="900" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑏𝑒𝑠𝑡_𝑎𝑠𝑘_𝑑𝑒𝑝𝑡ℎ〗_𝑡=𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐 [</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>∑2_(𝑖=1)^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑛</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>▒〖〖𝑏𝑒𝑠𝑡 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑎𝑠𝑘</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 𝑎𝑚𝑜𝑢𝑛𝑡〗_(𝑘,𝑖)×〖𝑏𝑒𝑠𝑡 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑎𝑠𝑘</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 𝑝𝑟𝑖𝑐𝑒〗_(𝑘,𝑖) 〗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="900" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>]</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-CA" sz="900"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -2472,7 +581,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -3457,7 +1566,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -4049,7 +2158,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -4447,7 +2556,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -4743,7 +2852,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -4977,7 +3086,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -5211,7 +3320,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -5690,7 +3799,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -5981,12 +4090,12 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -6186,7 +4295,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -6534,11 +4643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6569,10 +4678,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -6581,7 +4690,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -6595,16 +4704,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -6618,16 +4727,17 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -6641,18 +4751,15 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="5" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -6665,17 +4772,16 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -6689,15 +4795,20 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -6710,16 +4821,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -6733,19 +4844,16 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -6759,16 +4867,16 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -6782,40 +4890,28 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -6828,28 +4924,41 @@
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -6862,16 +4971,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -6885,18 +4994,20 @@
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -6909,43 +5020,28 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -6955,31 +5051,40 @@
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -6989,18 +5094,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H20" s="3"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -7010,16 +5116,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="1"/>
@@ -7032,19 +5138,18 @@
         <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -7054,19 +5159,18 @@
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -7076,16 +5180,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -7097,39 +5201,29 @@
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="3"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -7139,98 +5233,66 @@
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="E28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="E29" s="3"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="H30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E31" s="3"/>
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Feature/Feature Pool.xlsx
+++ b/Feature/Feature Pool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wenjuan Xu\OneDrive\桌面\Graduate Study\Graduate Study\Research\Crypto_Trading\Code\Feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E98D084-BECB-4327-BD8E-0205AB9708C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85028CC0-8C72-4B49-B5A5-071B3183183E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="80">
   <si>
     <t>Data_Type</t>
   </si>
@@ -87,15 +87,6 @@
     <t>bid_ask_spread_return_statistic</t>
   </si>
   <si>
-    <t>Snapshot_Derivative</t>
-  </si>
-  <si>
-    <t>snapshot_derivative</t>
-  </si>
-  <si>
-    <t>first order derivative of ask/bid/amount/mid</t>
-  </si>
-  <si>
     <t>Numer_of_Events</t>
   </si>
   <si>
@@ -105,12 +96,6 @@
     <t># of events happened in last period</t>
   </si>
   <si>
-    <t>semi_std</t>
-  </si>
-  <si>
-    <t>Semi_Std</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Feature Engineering for Mid-Price Prediction with Deep Learning arXiv: Statistical Finance.</t>
   </si>
   <si>
@@ -256,6 +241,30 @@
   </si>
   <si>
     <t>middle_mom</t>
+  </si>
+  <si>
+    <t>Middle_Price_Derivative</t>
+  </si>
+  <si>
+    <t>middle_derivative</t>
+  </si>
+  <si>
+    <t>first order derivative of mid</t>
+  </si>
+  <si>
+    <t>Middle_Price_2nd_Derivative</t>
+  </si>
+  <si>
+    <t>middle_derivative_2nd</t>
+  </si>
+  <si>
+    <t>second order derivative of mid</t>
+  </si>
+  <si>
+    <t>Middle_Std</t>
+  </si>
+  <si>
+    <t>middle_std</t>
   </si>
 </sst>
 </file>
@@ -354,1219 +363,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4189287" cy="374650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9E4F72-72D0-4918-A6CF-A837C9A61252}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6921500" y="2209800"/>
-              <a:ext cx="4189287" cy="374650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="900" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑠𝑝𝑟𝑒𝑎𝑑</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>_</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑟𝑒𝑡𝑢𝑟𝑛</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> [</m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑎𝑠𝑘</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑏𝑖𝑑</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑚𝑖𝑑𝑑𝑙𝑒</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>]</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-CA" sz="900"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9E4F72-72D0-4918-A6CF-A837C9A61252}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6921500" y="2209800"/>
-              <a:ext cx="4189287" cy="374650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-CA" sz="900" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="900" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑠𝑝𝑟𝑒𝑎𝑑_𝑟𝑒𝑡𝑢𝑟𝑛〗_𝑡=𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐 [(𝑎𝑠𝑘−𝑏𝑖𝑑)/𝑚𝑖𝑑𝑑𝑙𝑒]</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-CA" sz="900"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4189287" cy="374650"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624A89C5-1DF1-48CC-B490-FB323E78DCD3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6921500" y="2946400"/>
-              <a:ext cx="4189287" cy="374650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSup>
-                      <m:sSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑅𝑆𝑉</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>+</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>(</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑋</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="900" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:nary>
-                      <m:naryPr>
-                        <m:chr m:val="∑"/>
-                        <m:limLoc m:val="subSup"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:naryPr>
-                      <m:sub>
-                        <m:r>
-                          <m:rPr>
-                            <m:brk m:alnAt="25"/>
-                          </m:rPr>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>=1</m:t>
-                        </m:r>
-                      </m:sub>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑛</m:t>
-                        </m:r>
-                      </m:sup>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑟</m:t>
-                        </m:r>
-                        <m:sSubSup>
-                          <m:sSubSupPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubSupPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>(</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑋</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>)</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:sub>
-                          <m:sup>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>2</m:t>
-                            </m:r>
-                          </m:sup>
-                        </m:sSubSup>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>1</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>(</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑟</m:t>
-                            </m:r>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:d>
-                                  <m:dPr>
-                                    <m:ctrlPr>
-                                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                    </m:ctrlPr>
-                                  </m:dPr>
-                                  <m:e>
-                                    <m:r>
-                                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝑋</m:t>
-                                    </m:r>
-                                  </m:e>
-                                </m:d>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>&gt;0)</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:e>
-                    </m:nary>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>  ;  </m:t>
-                    </m:r>
-                    <m:sSup>
-                      <m:sSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑅𝑆𝑉</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>(</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑋</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:nary>
-                      <m:naryPr>
-                        <m:chr m:val="∑"/>
-                        <m:limLoc m:val="subSup"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:naryPr>
-                      <m:sub>
-                        <m:r>
-                          <m:rPr>
-                            <m:brk m:alnAt="25"/>
-                          </m:rPr>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑖</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>=1</m:t>
-                        </m:r>
-                      </m:sub>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑛</m:t>
-                        </m:r>
-                      </m:sup>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑟</m:t>
-                        </m:r>
-                        <m:sSubSup>
-                          <m:sSubSupPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubSupPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>(</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑋</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>)</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:sub>
-                          <m:sup>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>2</m:t>
-                            </m:r>
-                          </m:sup>
-                        </m:sSubSup>
-                        <m:r>
-                          <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t> </m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>1</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>(</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑟</m:t>
-                            </m:r>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:d>
-                                  <m:dPr>
-                                    <m:ctrlPr>
-                                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                    </m:ctrlPr>
-                                  </m:dPr>
-                                  <m:e>
-                                    <m:r>
-                                      <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝑋</m:t>
-                                    </m:r>
-                                  </m:e>
-                                </m:d>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                            <m:r>
-                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>&lt;0)</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:e>
-                    </m:nary>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-CA" sz="900"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624A89C5-1DF1-48CC-B490-FB323E78DCD3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6921500" y="2946400"/>
-              <a:ext cx="4189287" cy="374650"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-CA" sz="900" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>〖𝑅𝑆𝑉〗^+ 〖(𝑋)〗_𝑡=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>∑2_(𝑖=1)^𝑛▒〖𝑟〖(𝑋)〗_𝑖^2  1_((𝑟(𝑋)_𝑖&gt;0)) 〗   ;  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖𝑅𝑆𝑉〗^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 〖(𝑋)〗_𝑡=∑2_(𝑖=1)^𝑛▒〖𝑟〖(𝑋)〗_𝑖^2  1_((𝑟(𝑋)_𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>&lt;</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>0)) 〗</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-CA" sz="900"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -2158,7 +955,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -2556,7 +1353,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -2852,7 +1649,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -3086,7 +1883,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -3320,7 +2117,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -3799,7 +2596,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -4090,7 +2887,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4189287" cy="374650"/>
@@ -4643,11 +3440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4704,10 +3501,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
@@ -4727,10 +3524,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
@@ -4751,10 +3548,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
@@ -4795,16 +3592,16 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
@@ -4821,16 +3618,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>28</v>
+      <c r="G7" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -4844,16 +3641,16 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -4867,16 +3664,16 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -4890,51 +3687,51 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -4947,18 +3744,17 @@
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -4971,17 +3767,18 @@
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -4994,19 +3791,16 @@
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -5020,49 +3814,54 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="3"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
@@ -5072,19 +3871,18 @@
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -5094,16 +3892,16 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="1"/>
@@ -5116,16 +3914,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="1"/>
@@ -5138,18 +3936,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H22" s="3"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -5159,16 +3958,16 @@
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -5180,16 +3979,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -5201,53 +4000,70 @@
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="3"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E28" s="3"/>
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -5255,23 +4071,8 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="31" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
@@ -5284,15 +4085,34 @@
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E31" s="3"/>
       <c r="H31" s="3"/>
+      <c r="I31" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Feature/Feature Pool.xlsx
+++ b/Feature/Feature Pool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wenjuan Xu\OneDrive\桌面\Graduate Study\Graduate Study\Research\Crypto_Trading\Code\Feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85028CC0-8C72-4B49-B5A5-071B3183183E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B580FA6-DE51-4510-810C-50B37A71364B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="74">
   <si>
     <t>Data_Type</t>
   </si>
@@ -75,9 +75,6 @@
     <t>incremental_book_L2</t>
   </si>
   <si>
-    <t>order_frequency</t>
-  </si>
-  <si>
     <t>consider ask side/bid side/ total side</t>
   </si>
   <si>
@@ -87,15 +84,6 @@
     <t>bid_ask_spread_return_statistic</t>
   </si>
   <si>
-    <t>Numer_of_Events</t>
-  </si>
-  <si>
-    <t>num_event</t>
-  </si>
-  <si>
-    <t># of events happened in last period</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Feature Engineering for Mid-Price Prediction with Deep Learning arXiv: Statistical Finance.</t>
   </si>
   <si>
@@ -204,9 +192,6 @@
     <t>trade_frequency_derivative_2nd</t>
   </si>
   <si>
-    <t>Order_Volumn</t>
-  </si>
-  <si>
     <t>Trade_Volumn</t>
   </si>
   <si>
@@ -217,9 +202,6 @@
   </si>
   <si>
     <t>trade_frequency</t>
-  </si>
-  <si>
-    <t>order_volumn</t>
   </si>
   <si>
     <t>Spot_Incremental_Single.py</t>
@@ -3440,11 +3422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3501,10 +3483,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
@@ -3524,10 +3506,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
@@ -3548,10 +3530,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
@@ -3569,10 +3551,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
@@ -3592,16 +3574,16 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
@@ -3618,16 +3600,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -3641,16 +3623,16 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -3664,16 +3646,16 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -3687,16 +3669,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -3710,16 +3692,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -3744,16 +3726,16 @@
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -3767,16 +3749,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -3791,16 +3773,16 @@
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -3814,19 +3796,19 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -3840,16 +3822,16 @@
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -3871,16 +3853,16 @@
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -3892,16 +3874,16 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="1"/>
@@ -3914,16 +3896,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="1"/>
@@ -3936,16 +3918,16 @@
         <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="1"/>
@@ -3958,16 +3940,16 @@
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -3979,16 +3961,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -4000,16 +3982,16 @@
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -4021,16 +4003,16 @@
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -4055,23 +4037,42 @@
       <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -4084,13 +4085,13 @@
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -4103,16 +4104,53 @@
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>22</v>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
